--- a/upload_files/data_engineer_mid__booking_data_engineer_senior.xlsx
+++ b/upload_files/data_engineer_mid__booking_data_engineer_senior.xlsx
@@ -55,7 +55,7 @@
     <t>booking_data_engineer_senior.txt</t>
   </si>
   <si>
-    <t>32.38</t>
+    <t>27.69</t>
   </si>
   <si>
     <t>data engineer : 3</t>
@@ -220,31 +220,31 @@
     <t>hadoop : 2</t>
   </si>
   <si>
+    <t>sql : 2</t>
+  </si>
+  <si>
+    <t>python : 2</t>
+  </si>
+  <si>
     <t>hadoop : 6</t>
   </si>
   <si>
+    <t>engineer : 2</t>
+  </si>
+  <si>
+    <t>data engineer : 2</t>
+  </si>
+  <si>
     <t>kafka : 3</t>
   </si>
   <si>
-    <t>sql : 2</t>
+    <t>spark : 3</t>
   </si>
   <si>
     <t>tools : 4</t>
   </si>
   <si>
-    <t>data engineer : 2</t>
-  </si>
-  <si>
-    <t>python : 2</t>
-  </si>
-  <si>
-    <t>engineer : 2</t>
-  </si>
-  <si>
-    <t>spark : 3</t>
-  </si>
-  <si>
-    <t>32.74</t>
+    <t>28.00</t>
   </si>
   <si>
     <t>0.0</t>
@@ -705,7 +705,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -713,7 +713,7 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -721,7 +721,7 @@
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -729,7 +729,7 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:11">

--- a/upload_files/data_engineer_mid__booking_data_engineer_senior.xlsx
+++ b/upload_files/data_engineer_mid__booking_data_engineer_senior.xlsx
@@ -55,7 +55,7 @@
     <t>booking_data_engineer_senior.txt</t>
   </si>
   <si>
-    <t>27.69</t>
+    <t>0.967</t>
   </si>
   <si>
     <t>data engineer : 3</t>
@@ -220,31 +220,31 @@
     <t>hadoop : 2</t>
   </si>
   <si>
+    <t>kafka : 3</t>
+  </si>
+  <si>
+    <t>tools : 4</t>
+  </si>
+  <si>
+    <t>data engineer : 2</t>
+  </si>
+  <si>
     <t>sql : 2</t>
   </si>
   <si>
+    <t>hadoop : 6</t>
+  </si>
+  <si>
     <t>python : 2</t>
   </si>
   <si>
-    <t>hadoop : 6</t>
-  </si>
-  <si>
     <t>engineer : 2</t>
   </si>
   <si>
-    <t>data engineer : 2</t>
-  </si>
-  <si>
-    <t>kafka : 3</t>
-  </si>
-  <si>
     <t>spark : 3</t>
   </si>
   <si>
-    <t>tools : 4</t>
-  </si>
-  <si>
-    <t>28.00</t>
+    <t>33.33</t>
   </si>
   <si>
     <t>0.0</t>
